--- a/数据/大屏移动端/大屏线稿/吉象普惠.xlsx
+++ b/数据/大屏移动端/大屏线稿/吉象普惠.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jiaming WANG\Documents\GitHub\itaiping\数据\大屏移动端\大屏线稿\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B22DE6-AEB8-4E07-B4FA-4DC92029665A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E5772A-DD85-4C9B-AD26-ADE346F5ED7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FF86E80F-21E9-4713-B443-55F12C3EDD0A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{FF86E80F-21E9-4713-B443-55F12C3EDD0A}"/>
   </bookViews>
   <sheets>
     <sheet name="渠道" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>月份</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>其他渠道</t>
+  </si>
+  <si>
+    <t>其它</t>
   </si>
 </sst>
 </file>
@@ -2563,6 +2566,371 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>占比</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-7844-402D-837B-D29F6C4E55A6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-7844-402D-837B-D29F6C4E55A6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-7844-402D-837B-D29F6C4E55A6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-7844-402D-837B-D29F6C4E55A6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$2:$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>上海</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>江苏</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>广东</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>其它</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>23.413103684704598</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.030525486367001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.94976675563277</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46.606604073295635</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000016-7844-402D-837B-D29F6C4E55A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="78000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="lt1"/>
+      </a:bgClr>
+    </a:pattFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2723,6 +3091,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
@@ -4284,6 +4692,537 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="25000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="matte"/>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="78000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4975,6 +5914,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EED5E7B-913B-4D07-89E4-D56F8233766B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5277,7 +6254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F1B4F7-2EB0-4DF2-924E-616E3F3BA3B1}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
@@ -5609,55 +6586,86 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1000FB1B-B7C0-416E-A9E6-192A253B0A98}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
       </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="4">
         <v>23.413103684704598</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4">
+        <v>23.413103684704598</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="4">
         <v>23.030525486367001</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4">
+        <v>23.030525486367001</v>
+      </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="4">
         <v>6.94976675563277</v>
       </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4">
+        <v>6.94976675563277</v>
+      </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="4">
         <v>6.7099710845190002</v>
       </c>
+      <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <f>100-D2-D3-D4</f>
+        <v>46.606604073295635</v>
+      </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
@@ -5665,7 +6673,7 @@
         <v>4.4998483328277796</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
@@ -5673,7 +6681,7 @@
         <v>3.24154926670268</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:4">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5681,7 +6689,7 @@
         <v>2.9549970294772798</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
@@ -5689,7 +6697,7 @@
         <v>2.87431727336527</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:4">
       <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
@@ -5697,7 +6705,7 @@
         <v>2.6961756539188499</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:4">
       <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
@@ -5705,7 +6713,7 @@
         <v>2.6704191578074501</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
